--- a/tools/excel/WritingCheck/example.xlsx
+++ b/tools/excel/WritingCheck/example.xlsx
@@ -450,7 +450,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="100.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="104.25" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
